--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Eng</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H2">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N2">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O2">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P2">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q2">
-        <v>210.8118937964087</v>
+        <v>469.0114876273537</v>
       </c>
       <c r="R2">
-        <v>1897.307044167678</v>
+        <v>4221.103388646184</v>
       </c>
       <c r="S2">
-        <v>0.02560053555204063</v>
+        <v>0.0884637319597274</v>
       </c>
       <c r="T2">
-        <v>0.02560053555204064</v>
+        <v>0.08846373195972743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H3">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
         <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P3">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q3">
-        <v>54.37080591669712</v>
+        <v>105.3537216817395</v>
       </c>
       <c r="R3">
-        <v>489.337253250274</v>
+        <v>948.1834951356559</v>
       </c>
       <c r="S3">
-        <v>0.006602671817026379</v>
+        <v>0.01987154609572844</v>
       </c>
       <c r="T3">
-        <v>0.006602671817026381</v>
+        <v>0.01987154609572844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H4">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N4">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O4">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P4">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q4">
-        <v>9.989255977027558</v>
+        <v>11.54944380777511</v>
       </c>
       <c r="R4">
-        <v>89.903303793248</v>
+        <v>103.944994269976</v>
       </c>
       <c r="S4">
-        <v>0.001213073409535894</v>
+        <v>0.002178426175579591</v>
       </c>
       <c r="T4">
-        <v>0.001213073409535895</v>
+        <v>0.002178426175579591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H5">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N5">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O5">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P5">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q5">
-        <v>10.46087279752778</v>
+        <v>16.44003832266089</v>
       </c>
       <c r="R5">
-        <v>94.14785517774999</v>
+        <v>147.960344903948</v>
       </c>
       <c r="S5">
-        <v>0.001270345525272478</v>
+        <v>0.003100877445328268</v>
       </c>
       <c r="T5">
-        <v>0.001270345525272478</v>
+        <v>0.003100877445328269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H6">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N6">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O6">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P6">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q6">
-        <v>2.927624284460333</v>
+        <v>6.118025136611555</v>
       </c>
       <c r="R6">
-        <v>26.348618560143</v>
+        <v>55.062226229504</v>
       </c>
       <c r="S6">
-        <v>0.0003555242933765679</v>
+        <v>0.001153966054319975</v>
       </c>
       <c r="T6">
-        <v>0.000355524293376568</v>
+        <v>0.001153966054319975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H7">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N7">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O7">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P7">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q7">
-        <v>9.341413879586556</v>
+        <v>22.19119294442266</v>
       </c>
       <c r="R7">
-        <v>84.07272491627899</v>
+        <v>199.720736499804</v>
       </c>
       <c r="S7">
-        <v>0.001134400881392563</v>
+        <v>0.004185645333407624</v>
       </c>
       <c r="T7">
-        <v>0.001134400881392564</v>
+        <v>0.004185645333407624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N8">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O8">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P8">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q8">
-        <v>2345.814883684558</v>
+        <v>2693.382266833479</v>
       </c>
       <c r="R8">
-        <v>21112.33395316102</v>
+        <v>24240.44040150131</v>
       </c>
       <c r="S8">
-        <v>0.2848706315701038</v>
+        <v>0.5080187867542194</v>
       </c>
       <c r="T8">
-        <v>0.2848706315701038</v>
+        <v>0.5080187867542196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
         <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P9">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q9">
-        <v>605.0125704979807</v>
+        <v>605.0125704979805</v>
       </c>
       <c r="R9">
-        <v>5445.113134481827</v>
+        <v>5445.113134481825</v>
       </c>
       <c r="S9">
-        <v>0.07347140401586252</v>
+        <v>0.1141159039399135</v>
       </c>
       <c r="T9">
-        <v>0.07347140401586255</v>
+        <v>0.1141159039399135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N10">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O10">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P10">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q10">
-        <v>111.1557081806613</v>
+        <v>66.32474462622731</v>
       </c>
       <c r="R10">
-        <v>1000.401373625952</v>
+        <v>596.9227016360459</v>
       </c>
       <c r="S10">
-        <v>0.01349850621729841</v>
+        <v>0.01251000153662281</v>
       </c>
       <c r="T10">
-        <v>0.01349850621729841</v>
+        <v>0.01251000153662281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N11">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O11">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P11">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q11">
-        <v>116.4036367344167</v>
+        <v>94.40985743935366</v>
       </c>
       <c r="R11">
-        <v>1047.63273060975</v>
+        <v>849.688716954183</v>
       </c>
       <c r="S11">
-        <v>0.0141358031889993</v>
+        <v>0.01780734276919651</v>
       </c>
       <c r="T11">
-        <v>0.01413580318899931</v>
+        <v>0.01780734276919652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N12">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O12">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P12">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q12">
-        <v>32.57721609842299</v>
+        <v>35.13385246564266</v>
       </c>
       <c r="R12">
-        <v>293.194944885807</v>
+        <v>316.2046721907839</v>
       </c>
       <c r="S12">
-        <v>0.003956105909847843</v>
+        <v>0.00662685624814097</v>
       </c>
       <c r="T12">
-        <v>0.003956105909847845</v>
+        <v>0.006626856248140971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N13">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O13">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P13">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q13">
-        <v>103.9468282304523</v>
+        <v>127.436890424051</v>
       </c>
       <c r="R13">
-        <v>935.521454074071</v>
+        <v>1146.932013816459</v>
       </c>
       <c r="S13">
-        <v>0.01262307559461282</v>
+        <v>0.02403681618393882</v>
       </c>
       <c r="T13">
-        <v>0.01262307559461282</v>
+        <v>0.02403681618393882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H14">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I14">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J14">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N14">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O14">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P14">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q14">
-        <v>3264.767489817357</v>
+        <v>780.3969580502862</v>
       </c>
       <c r="R14">
-        <v>29382.90740835621</v>
+        <v>7023.572622452576</v>
       </c>
       <c r="S14">
-        <v>0.3964662272468023</v>
+        <v>0.1471964528382711</v>
       </c>
       <c r="T14">
-        <v>0.3964662272468022</v>
+        <v>0.1471964528382712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H15">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I15">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J15">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
         <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P15">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q15">
-        <v>842.0209901602143</v>
+        <v>175.3000216170204</v>
       </c>
       <c r="R15">
-        <v>7578.188911441928</v>
+        <v>1577.700194553184</v>
       </c>
       <c r="S15">
-        <v>0.1022531884039659</v>
+        <v>0.03306463601416929</v>
       </c>
       <c r="T15">
-        <v>0.1022531884039659</v>
+        <v>0.03306463601416929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H16">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I16">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J16">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N16">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O16">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P16">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q16">
-        <v>154.6999914186951</v>
+        <v>19.21733486818489</v>
       </c>
       <c r="R16">
-        <v>1392.299922768256</v>
+        <v>172.956013813664</v>
       </c>
       <c r="S16">
-        <v>0.01878642878679055</v>
+        <v>0.003624723925973794</v>
       </c>
       <c r="T16">
-        <v>0.01878642878679055</v>
+        <v>0.003624723925973795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H17">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I17">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J17">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N17">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O17">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P17">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q17">
-        <v>162.0037504025555</v>
+        <v>27.35488625691911</v>
       </c>
       <c r="R17">
-        <v>1458.033753623</v>
+        <v>246.193976312272</v>
       </c>
       <c r="S17">
-        <v>0.0196733813119191</v>
+        <v>0.005159607790979379</v>
       </c>
       <c r="T17">
-        <v>0.0196733813119191</v>
+        <v>0.00515960779097938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H18">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I18">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J18">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N18">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O18">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P18">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q18">
-        <v>45.33905755591066</v>
+        <v>10.17989608322844</v>
       </c>
       <c r="R18">
-        <v>408.051518003196</v>
+        <v>91.61906474905601</v>
       </c>
       <c r="S18">
-        <v>0.005505876039314252</v>
+        <v>0.001920105631186842</v>
       </c>
       <c r="T18">
-        <v>0.005505876039314253</v>
+        <v>0.001920105631186843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H19">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I19">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J19">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N19">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O19">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P19">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q19">
-        <v>144.6670953606431</v>
+        <v>36.92433965091733</v>
       </c>
       <c r="R19">
-        <v>1302.003858245788</v>
+        <v>332.319056858256</v>
       </c>
       <c r="S19">
-        <v>0.0175680558212114</v>
+        <v>0.00696457330329616</v>
       </c>
       <c r="T19">
-        <v>0.0175680558212114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.102695</v>
-      </c>
-      <c r="I20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>172.744858</v>
-      </c>
-      <c r="N20">
-        <v>518.234574</v>
-      </c>
-      <c r="O20">
-        <v>0.7076554979861184</v>
-      </c>
-      <c r="P20">
-        <v>0.7076554979861185</v>
-      </c>
-      <c r="Q20">
-        <v>5.913344397436666</v>
-      </c>
-      <c r="R20">
-        <v>53.22009957693</v>
-      </c>
-      <c r="S20">
-        <v>0.0007181036171717965</v>
-      </c>
-      <c r="T20">
-        <v>0.0007181036171717966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.102695</v>
-      </c>
-      <c r="I21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>44.55288066666667</v>
-      </c>
-      <c r="N21">
-        <v>133.658642</v>
-      </c>
-      <c r="O21">
-        <v>0.1825124713980552</v>
-      </c>
-      <c r="P21">
-        <v>0.1825124713980553</v>
-      </c>
-      <c r="Q21">
-        <v>1.525119360021111</v>
-      </c>
-      <c r="R21">
-        <v>13.72607424019</v>
-      </c>
-      <c r="S21">
-        <v>0.0001852071612004609</v>
-      </c>
-      <c r="T21">
-        <v>0.000185207161200461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.102695</v>
-      </c>
-      <c r="I22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.185461333333334</v>
-      </c>
-      <c r="N22">
-        <v>24.556384</v>
-      </c>
-      <c r="O22">
-        <v>0.03353203553003075</v>
-      </c>
-      <c r="P22">
-        <v>0.03353203553003076</v>
-      </c>
-      <c r="Q22">
-        <v>0.2802019838755556</v>
-      </c>
-      <c r="R22">
-        <v>2.521817854880001</v>
-      </c>
-      <c r="S22">
-        <v>3.402711640589929E-05</v>
-      </c>
-      <c r="T22">
-        <v>3.402711640589929E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.102695</v>
-      </c>
-      <c r="I23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.571916666666667</v>
-      </c>
-      <c r="N23">
-        <v>25.71575</v>
-      </c>
-      <c r="O23">
-        <v>0.03511516364467131</v>
-      </c>
-      <c r="P23">
-        <v>0.03511516364467132</v>
-      </c>
-      <c r="Q23">
-        <v>0.2934309940277778</v>
-      </c>
-      <c r="R23">
-        <v>2.64087894625</v>
-      </c>
-      <c r="S23">
-        <v>3.563361848043281E-05</v>
-      </c>
-      <c r="T23">
-        <v>3.563361848043283E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.102695</v>
-      </c>
-      <c r="I24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.398973</v>
-      </c>
-      <c r="N24">
-        <v>7.196918999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.009827478818329008</v>
-      </c>
-      <c r="P24">
-        <v>0.009827478818329011</v>
-      </c>
-      <c r="Q24">
-        <v>0.08212084407833332</v>
-      </c>
-      <c r="R24">
-        <v>0.739087596705</v>
-      </c>
-      <c r="S24">
-        <v>9.972575790345528E-06</v>
-      </c>
-      <c r="T24">
-        <v>9.972575790345532E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.102695</v>
-      </c>
-      <c r="I25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>7.654602333333333</v>
-      </c>
-      <c r="N25">
-        <v>22.963807</v>
-      </c>
-      <c r="O25">
-        <v>0.03135735262279531</v>
-      </c>
-      <c r="P25">
-        <v>0.03135735262279532</v>
-      </c>
-      <c r="Q25">
-        <v>0.2620297955405556</v>
-      </c>
-      <c r="R25">
-        <v>2.358268159865</v>
-      </c>
-      <c r="S25">
-        <v>3.182032557853814E-05</v>
-      </c>
-      <c r="T25">
-        <v>3.182032557853815E-05</v>
+        <v>0.006964573303296162</v>
       </c>
     </row>
   </sheetData>
